--- a/attendance-files/LMW/LMW Attendance - A.xlsx
+++ b/attendance-files/LMW/LMW Attendance - A.xlsx
@@ -994,7 +994,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1003,6 +1003,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border/>
@@ -13417,7 +13427,7 @@
   <mergeCells count="1">
     <mergeCell ref="G4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:G53">
+  <conditionalFormatting sqref="G7:Z90">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
@@ -13427,6 +13437,11 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
